--- a/memo.xlsx
+++ b/memo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6000" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6000" windowHeight="7500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Learning-path" sheetId="5" r:id="rId1"/>
@@ -114,10 +114,6 @@
   </si>
   <si>
     <t>lệnh tạo memory api</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lệnh tạo router, config file router ts có chỗ forRoot</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1516,6 +1512,10 @@
   </si>
   <si>
     <t>NhatKy project</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lệnh tạo router, config file router ts có chỗ forRoot: ng generate module app-routing --flat --module=app</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7888,13 +7888,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>231322</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
+      <xdr:rowOff>4081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>33702</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>8011</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>236611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7911,8 +7911,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7279822" y="26955749"/>
-          <a:ext cx="2523809" cy="1219048"/>
+          <a:off x="8413297" y="26245456"/>
+          <a:ext cx="2545580" cy="1185030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8759,8 +8759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8771,18 +8771,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6">
         <v>44332</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6">
         <v>44352</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6">
         <v>44355</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" s="6">
         <v>44360</v>
@@ -8862,7 +8862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -9045,14 +9045,14 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -9062,229 +9062,229 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
         <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -9315,8 +9315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AR20" sqref="AR20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9326,52 +9326,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -9386,8 +9386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q261"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+    <sheetView tabSelected="1" topLeftCell="C100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S119" sqref="S119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9400,23 +9400,23 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -9427,10 +9427,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -9485,114 +9485,114 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
         <v>105</v>
       </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
         <v>111</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" t="s">
         <v>123</v>
-      </c>
-      <c r="C19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
         <v>125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
@@ -9611,7 +9611,7 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="Q23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
@@ -9630,7 +9630,7 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="Q24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
@@ -9746,7 +9746,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="Q32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
@@ -9765,7 +9765,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="Q33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
@@ -9881,7 +9881,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="Q41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.4">
@@ -9900,7 +9900,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="Q42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.4">
@@ -10016,7 +10016,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="Q50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.4">
@@ -10035,7 +10035,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="Q51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.4">
@@ -10151,7 +10151,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="Q59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.4">
@@ -10170,7 +10170,7 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="Q60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.4">
@@ -10286,7 +10286,7 @@
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="Q68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.4">
@@ -10305,7 +10305,7 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="Q69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.4">
@@ -10324,7 +10324,7 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="Q70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.4">
@@ -10424,7 +10424,7 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="Q77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.4">
@@ -10443,7 +10443,7 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="Q78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.4">
@@ -10559,7 +10559,7 @@
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="Q86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.4">
@@ -10578,7 +10578,7 @@
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="Q87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.4">
@@ -10694,7 +10694,7 @@
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
       <c r="Q95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.4">
@@ -10713,7 +10713,7 @@
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="Q96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
@@ -10732,7 +10732,7 @@
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
       <c r="Q97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.4">
@@ -10832,7 +10832,7 @@
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
       <c r="Q104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.4">
@@ -10851,7 +10851,7 @@
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="Q105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.4">
@@ -10967,7 +10967,7 @@
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
       <c r="Q113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.4">
@@ -10986,7 +10986,7 @@
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
       <c r="Q114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.4">
@@ -11005,7 +11005,7 @@
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
       <c r="Q115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.4">
@@ -11024,7 +11024,7 @@
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
       <c r="Q116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.4">
@@ -11043,7 +11043,7 @@
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
       <c r="Q117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.4">
@@ -11111,7 +11111,7 @@
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
       <c r="Q122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.4">
@@ -11130,7 +11130,7 @@
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
       <c r="Q123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.4">
@@ -11246,7 +11246,7 @@
       <c r="N131" s="9"/>
       <c r="O131" s="9"/>
       <c r="Q131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.4">
@@ -11265,7 +11265,7 @@
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
       <c r="Q132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.4">
@@ -11367,30 +11367,30 @@
     <row r="139" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B146" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="D146" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="E146" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E146" s="12" t="s">
+      <c r="F146" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F146" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="G146" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.4">
@@ -11398,22 +11398,22 @@
         <v>1</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C147" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="E147" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F147" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E147" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="G147" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.4">
@@ -11422,19 +11422,19 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D148" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E148" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="F148" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F148" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="G148" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.4">
@@ -11443,19 +11443,19 @@
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="E149" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F149" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E149" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F149" s="11" t="s">
+      <c r="G149" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.4">
@@ -11464,19 +11464,19 @@
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="E150" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E150" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="F150" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.4">
@@ -11485,19 +11485,19 @@
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="E151" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="F151" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F151" s="11" t="s">
+      <c r="G151" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.4">
@@ -11506,19 +11506,19 @@
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D152" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E152" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E152" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="F152" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G152" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.4">
@@ -11527,19 +11527,19 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D153" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F153" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E153" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="G153" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.4">
@@ -11548,19 +11548,19 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.4">
@@ -11569,19 +11569,19 @@
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="E155" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F155" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E155" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F155" s="11" t="s">
+      <c r="G155" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.4">
@@ -11590,19 +11590,19 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.4">
@@ -11611,19 +11611,19 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F157" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D157" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F157" s="11" t="s">
+      <c r="G157" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.4">
@@ -11632,19 +11632,19 @@
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D158" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="E158" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="F158" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F158" s="11" t="s">
+      <c r="G158" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.4">
@@ -11653,19 +11653,19 @@
       </c>
       <c r="B159" s="14"/>
       <c r="C159" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F159" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D159" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E159" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>215</v>
-      </c>
       <c r="G159" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.4">
@@ -11674,19 +11674,19 @@
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D160" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="E160" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F160" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E160" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F160" s="11" t="s">
+      <c r="G160" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.4">
@@ -11695,19 +11695,19 @@
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D161" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="E161" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="F161" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G161" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="F161" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G161" s="16" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.4">
@@ -11716,19 +11716,19 @@
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F162" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D162" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F162" s="16" t="s">
+      <c r="G162" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="G162" s="17" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.4">
@@ -11737,19 +11737,19 @@
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D163" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="E163" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="F163" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F163" s="11" t="s">
+      <c r="G163" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.4">
@@ -11758,19 +11758,19 @@
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D164" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="E164" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="F164" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="F164" s="11" t="s">
+      <c r="G164" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.4">
@@ -11779,19 +11779,19 @@
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E165" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D165" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="F165" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F165" s="11" t="s">
+      <c r="G165" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.4">
@@ -11800,19 +11800,19 @@
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E166" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="F166" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G166" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.4">
@@ -11821,19 +11821,19 @@
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D167" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D167" s="11" t="s">
+      <c r="E167" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="F167" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="F167" s="13" t="s">
+      <c r="G167" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.4">
@@ -11842,19 +11842,19 @@
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E168" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D168" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E168" s="11" t="s">
+      <c r="F168" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>259</v>
-      </c>
       <c r="G168" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.4">
@@ -11862,22 +11862,22 @@
         <v>23</v>
       </c>
       <c r="B169" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="D169" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="E169" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F169" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E169" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F169" s="11" t="s">
+      <c r="G169" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.4">
@@ -11886,19 +11886,19 @@
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D170" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="E170" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F170" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E170" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>267</v>
-      </c>
       <c r="G170" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.4">
@@ -11907,19 +11907,19 @@
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E171" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D171" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E171" s="11" t="s">
+      <c r="F171" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F171" s="11" t="s">
+      <c r="G171" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.4">
@@ -11928,19 +11928,19 @@
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E172" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D172" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E172" s="11" t="s">
+      <c r="F172" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F172" s="11" t="s">
+      <c r="G172" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.4">
@@ -11949,19 +11949,19 @@
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D173" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="E173" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="F173" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="F173" s="11" t="s">
-        <v>279</v>
-      </c>
       <c r="G173" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.4">
@@ -11970,19 +11970,19 @@
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="E174" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F174" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E174" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>282</v>
-      </c>
       <c r="G174" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.4">
@@ -11991,19 +11991,19 @@
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D175" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="E175" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="F175" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F175" s="11" t="s">
+      <c r="G175" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.4">
@@ -12012,19 +12012,19 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D176" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F176" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E176" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F176" s="11" t="s">
+      <c r="G176" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.4">
@@ -12033,19 +12033,19 @@
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D177" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="E177" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G177" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.4">
@@ -12053,22 +12053,22 @@
         <v>32</v>
       </c>
       <c r="B178" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C178" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="D178" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F178" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D178" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F178" s="11" t="s">
+      <c r="G178" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.4">
@@ -12077,19 +12077,19 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D179" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="E179" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E179" s="11" t="s">
+      <c r="F179" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F179" s="11" t="s">
+      <c r="G179" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="G179" s="20" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.4">
@@ -12098,19 +12098,19 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E180" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D180" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E180" s="11" t="s">
+      <c r="F180" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F180" s="11" t="s">
+      <c r="G180" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="G180" s="11" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.4">
@@ -12119,19 +12119,19 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F181" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D181" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>310</v>
-      </c>
       <c r="G181" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.4">
@@ -12139,22 +12139,22 @@
         <v>36</v>
       </c>
       <c r="B182" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C182" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="D182" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E182" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="F182" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G182" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="E182" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="G182" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.4">
@@ -12163,19 +12163,19 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E183" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D183" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E183" s="11" t="s">
+      <c r="F183" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="F183" s="11" t="s">
+      <c r="G183" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="G183" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.4">
@@ -12184,19 +12184,19 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D184" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E184" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E184" s="11" t="s">
+      <c r="F184" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F184" s="11" t="s">
-        <v>321</v>
-      </c>
       <c r="G184" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
@@ -12205,19 +12205,19 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F185" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D185" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F185" s="11" t="s">
+      <c r="G185" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="G185" s="11" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
@@ -12226,19 +12226,19 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F186" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D186" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F186" s="11" t="s">
-        <v>327</v>
-      </c>
       <c r="G186" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
@@ -12246,7 +12246,7 @@
         <v>41</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -12260,19 +12260,19 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E188" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D188" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E188" s="11" t="s">
+      <c r="F188" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F188" s="11" t="s">
+      <c r="G188" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
@@ -12281,19 +12281,19 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E189" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D189" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E189" s="11" t="s">
+      <c r="F189" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="F189" s="11" t="s">
+      <c r="G189" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="G189" s="11" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
@@ -12302,19 +12302,19 @@
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E190" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D190" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E190" s="11" t="s">
+      <c r="F190" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G190" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G190" s="11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.4">
@@ -12323,19 +12323,19 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D191" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="E191" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="E191" s="11" t="s">
+      <c r="F191" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="F191" s="11" t="s">
+      <c r="G191" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="G191" s="11" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.4">
@@ -12344,19 +12344,19 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F192" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="D192" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F192" s="21" t="s">
+      <c r="G192" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.4">
@@ -12365,19 +12365,19 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E193" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D193" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E193" s="11" t="s">
+      <c r="F193" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="F193" s="11" t="s">
+      <c r="G193" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.4">
@@ -12386,19 +12386,19 @@
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F194" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D194" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E194" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="F194" s="11" t="s">
+      <c r="G194" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="G194" s="11" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">

--- a/memo.xlsx
+++ b/memo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6000" windowHeight="7500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6000" windowHeight="7500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Learning-path" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="362">
   <si>
     <t>------------------------------------</t>
   </si>
@@ -1516,6 +1516,25 @@
   </si>
   <si>
     <t>lệnh tạo router, config file router ts có chỗ forRoot: ng generate module app-routing --flat --module=app</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deploy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firebase use --add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ng build --prod</t>
+  </si>
+  <si>
+    <t>firebase deploy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ng deploy</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9042,10 +9061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9285,6 +9304,31 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -9386,7 +9430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C100" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S119" sqref="S119"/>
     </sheetView>
   </sheetViews>
